--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -7,7 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="Products" r:id="rId3" sheetId="1"/>
-    <sheet name="MostPopular" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -65,782 +64,1046 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
+          <t>[Жидкий стиральный порошок Ariel Color 1.95 л = 4.5 кг (8001090383372)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>3799</t>
+          <t>289</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
+          <t>[Капсулы для стирки Ariel Pods Touch of Lenor Fresh 30 шт (4015600950972)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4350</t>
+          <t>229</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
+          <t>[Стиральный порошок Tide Детский 6 кг (4015600800420)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>193</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
+          <t>[Гель для стирки Ariel Горный Родник 1.95 л = 4.5 кг (4015400892670)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>289</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[Samsung Galaxy J6 2/32GB Black (SM-J600FZKDSEK)</t>
+          <t>[Дуо-капсулы для стирки Persil Эксперт Колор 50 шт. (9000101094398)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5199</t>
+          <t>299</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
+          <t>[Гель для стирки Tide Альпийская свежесть 1.235 л = 2.85 кг (4015400880929)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>109</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
+          <t>[Стиральный порошок Ушастый нянь Детское 9 кг (4820026412894)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>299</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Samsung Galaxy J7 Neo J701F/DS Black</t>
+          <t>[Жидкое средство для стирки детского белья Frosch Baby 1.5 л (4009175924087)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>255</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
+          <t>[Средство для деликатной стирки Perwoll Advanced Color 4.05 л (9000101328714)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5699</t>
+          <t>264</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Huawei P Smart Black</t>
+          <t>[Средство для деликатной стирки Perwoll Advanced Silk and Wool 4.05 л (9000101328622)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>264</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
+          <t>[Стиральный порошок-концентрат Frosch Колор Алоэ Вера 1350 г (4001499145698)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>183</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[Samsung Galaxy J5 (2017) J530 Black</t>
+          <t>[Средство для деликатной стирки Perwoll Advanced Черный 4.05 л (9000101328677)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>264</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[Nokia 6 New Dual Sim Black</t>
+          <t>[Жидкое средство для стирки Frosch Лимон 2 л (4009175112965)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>197</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Sony Xperia XA1 Plus Dual (G3412) Black</t>
+          <t>[Гель для стирки цветных тканей Frosch 2 л (4001499013416)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>197</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
+          <t>[Гель для стирки Frosch Гранат 2 л (4001499910807)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>198</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
+          <t>[Средство для деликатной стирки Perwoll Восстановление+ Черный 3 л (9000100383455)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>179</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Xiaomi Mi A2 Lite 3/32GB Black</t>
+          <t>[Концентрированное жидкое средство Frosch для стирки Алоэ Вера 1.5 л (4001499159510)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4799</t>
+          <t>198</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
+          <t>[Концентрированное жидкое средство для стирки Frosch Марсельское мыло 2 л (4009175927262)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>211</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
+          <t>[Средство для деликатной стирки Perwoll Уход и Восстановление 3 л (9000100996341)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>179</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
+          <t>[Стиральный порошок Losk автомат Горное озеро 9 кг (9000100543309)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4699</t>
+          <t>299</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[Meizu M5 Note 32GB Grey (Международная версия)</t>
+          <t>[Органическое жидкое средство для стирки Sodasan Color Sensitiv 1.5 л (4019886015301)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>244</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi 6 3/32GB Black</t>
+          <t>[Гель для стирки Frosch Алоэ Вера 2 л (4001499122354)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3888</t>
+          <t>197</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[Xiaomi Mi A2 Lite 4/64GB Black</t>
+          <t>[Стиральный порошок Losk Колор 9 кг (9000100440585)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5699</t>
+          <t>299</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
+          <t>[Концентрированное жидкое средство для стирки Frosch Морские минералы 2 л (4009175927583)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5699</t>
+          <t>211</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
+          <t>[Средство для деликатной стирки Perwoll Advanced Sport 1.8 л (9000101327748)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3799</t>
+          <t>154</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[Motorola Moto X4 (XT1900-7) Super Black</t>
+          <t>[Эко гель Tortilla для стирки детских вещей 5 л (4820178060721)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5995</t>
+          <t>181</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[Huawei Y6 2018 Blue</t>
+          <t>[Концентрированное жидкое средство Frosch для стирки цветного белья Яблоко 1.5 л (4009175150806)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>198</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi 6A 3/32GB Gold (Global Rom + OTA)</t>
+          <t>[Гель для стирки O'key Universal 4.5 л (4820049381696)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>148</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
+          <t>[Гель для стирки Rex Колор 3.5 л (9000101324112)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3899</t>
+          <t>232</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[Huawei Y6 Prime 2018 Gold</t>
+          <t>[Концентрированное жидкое средство Frosch для стирки Гранат 1.5 л (4009175941190)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4499</t>
+          <t>198</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi Note 4X 4/64GB Blue</t>
+          <t>[Стиральный порошок Persil Sensitive для стирки детских вещей 6 кг (2413066) (9000101352863)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>299</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi 6A 2/32GB Black</t>
+          <t>[Стиральный порошок Persil автомат Сенситив 3 кг (9000100358491)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>254</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi 6 3/64GB Black</t>
+          <t>[Эко гель Tortilla для стирки универсальный 5 л (4820178060073)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>165</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>[Средство для деликатной стирки Perwoll Уход и Освежающий эффект 3 л (9000101098037)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3777</t>
+          <t>179</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[Samsung Galaxy J2 2018 Gold (SM-J250FZDDSEK) + чехол + стекло в подарок!</t>
+          <t>[Концентрированное жидкое средство Frosch для стирки Сода 1.5 л (4009175936455)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>198</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi 6A 2/32GB Black (Международная версия)</t>
+          <t>[Стиральный порошок для детского белья Tech Babience 3 кг (8801051210453)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[Motorola Moto E5 Plus (XT1924-1) Grey</t>
+          <t>[Стиральный порошок-концентрат Frosch Колор Гранат 1.35 кг (4001499937200)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>233</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
+          <t>[Стиральный порошок-концентрат Frosch Цитрус 1350 г (4001499144974)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4499</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
+          <t>[Гель для стирки Losk Горное озеро 3 л (9000101331400)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>262</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[TP-Link Neffos X1 Max Cloudy Gray (TP903A26UA)</t>
+          <t>[Стиральный порошок Ariel Автомат Нежный пион 4.5 кг (8001090743824)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3799</t>
+          <t>217</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
+          <t>[Стиральный порошок Ушастый нянь Детское 4.5 кг (4820026412870)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3799</t>
+          <t>183</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
+          <t>[Эко порошок для стирки детских вещей Green Max 1 кг (99100530101)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4444</t>
+          <t>233</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[Huawei Y7 Prime 2018 Black</t>
+          <t>[Гель для стирки Persil Сенситив 1 л (9000101318784)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5499</t>
+          <t>129</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[Sigma mobile X-treme PQ51 Black-Red + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>[Гель для стирки Ariel для чувствительной кожи 1.3 л = 3 кг (4015400892793)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>227</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>[Стиральный порошок Losk Дитячий 2.4 кг (2371253) (9000101341027)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>144</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[TP-Link Neffos С9 (TP707A24UA) Cloudy Grey + защитное стекло в подарок!</t>
+          <t>[Органическое жидкое стиральное средство для цветных тканей Sonett Концентрат 1.5 л (4007547504028)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>269</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[Sony Xperia XA1 Ultra Dual (G3212) Black</t>
+          <t>[Дуо-капсулы для стирки Persil Эксперт 36 шт. (9000101096897)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>249</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
+          <t>[Стиральный порошок Gala Автомат Французский аромат 8 кг (8001090807335)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4199</t>
+          <t>193</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[Sony Xperia XA1 Dual (G3112) White</t>
+          <t>[Органическое жидкое средство для стирки Sodasan Color 1.5 л (4019886015066)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>289</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[Prestigio Muze G7 LTE Black (PSP7550DUOBLACK)</t>
+          <t>[Средство для стирки детского белья Burti Baby Liquid 1.5 л (4000196928719)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>240</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[Tecno Pouvoir 2 Pro (LA7 pro) Champagne Gold</t>
+          <t>[Многоразовая ловушка для цвета и грязи Dr.Beckmann (4008455396613)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[Apple iPhone 5s 16GB Gold</t>
+          <t>[Средство для деликатной стирки Perwoll Advanced Care and Repair 3.6 л (9000101328103)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>239</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[Blackview BV6000s Black</t>
+          <t>[Средство для деликатной стирки Perwoll Advanced Care and Repair 3.6 л (9000101328103)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4299</t>
+          <t>239</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
+          <t>[Гель для стирки Persil Колор Лаванда 1 л (9000101318296)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3399</t>
+          <t>129</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55"/>
-      <c r="B55"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>[Гель для стирки Rex Лаванда и Пачули 3.96 л (9000101018103)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56"/>
-      <c r="B56"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>[Гель для стирки O'key Color 4.5 л (4820049381719)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57"/>
-      <c r="B57"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>[Средство для деликатной стирки Perwoll Advanced Silk and Wool 1.8 л (9000101327861)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58"/>
-      <c r="B58"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>[Средство для стирки цветного белья Burti Color 1.5 л (4000196121431)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59"/>
-      <c r="B59"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>[Стиральный Эко порошок Tortilla универсальный 8 кг (4820178060455)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60"/>
-      <c r="B60"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>[Гель для стирки Persil Колор 1 л (9000101318197)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61"/>
-      <c r="B61"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>[Дуо-капсулы для стирки Persil Эксперт Колор 36 шт. (9000101095371)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62"/>
-      <c r="B62"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>[Гель для стирки Losk Колор 3 л (9000101331363)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63"/>
-      <c r="B63"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>[Гель для стирки детского белья Карапуз Sensitive 3 л (4820049381610)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64"/>
-      <c r="B64"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>[Жидкое средство для стирки детской одежды Arau Baby запасной блок 720 мл (4973512257285)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65"/>
-      <c r="B65"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>[Средство для стирки De La Mark Baby 2 л (4820152330840)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66"/>
-      <c r="B66"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>[Гель для стирки цветных тканей PRO service Color 5 л (4823071621693_4823071634143)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67"/>
-      <c r="B67"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>[Гель для стирки Persil 1 л (9000101315981)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68"/>
-      <c r="B68"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>[Гель для стирки King Automat 5 л (8594010054006)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69"/>
-      <c r="B69"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>[Средство для деликатной стирки Perwoll Advanced White 1.8 л (9000101327229)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70"/>
-      <c r="B70"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>[Капсулы для стирки Ariel Pods Color 3-в-1 30 шт (8001090758446)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71"/>
-      <c r="B71"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>[Стиральный порошок Ariel Аромат Вербены 3 кг (8001090961969)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72"/>
-      <c r="B72"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>[Гель для стирки Rex Амазонская свежесть 3.5 л (9000101321845)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73"/>
-      <c r="B73"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>[Стиральный порошок Пролісок универсальный Соковитий лимон 10 кг (4823069703844)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74"/>
-      <c r="B74"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>[Стиральный порошок Ушастый нянь Детское 2.4 кг (4820026412863)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75"/>
-      <c r="B75"/>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>[Гель для стирки Ariel Аромат Масла Ши 1.3 л = 3 (8001090984982)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76"/>
-      <c r="B76"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>[Стиральный порошок для детского белья Burti Baby Compact 0.893 кг (4000196928672)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77"/>
-      <c r="B77"/>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>[Органические гипоаллергенные мыльные орехи Planet Pure в мешочке для стирки без аромата 350 г (9120001469994)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78"/>
-      <c r="B78"/>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>[Стиральный порошок Tide Lenor Touch of Scent 2.4 кг (8001090434586)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79"/>
-      <c r="B79"/>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>[Стиральный порошок Ушастый нянь Детское 6 кг (4820026412887)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80"/>
-      <c r="B80"/>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>[Стиральный порошок Blitz Vollwaschmittel 10 кг (4260145998044)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81"/>
-      <c r="B81"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>[Стиральный порошок Ariel Автомат Touch of Lenor Fresh 3 кг (5413149601413)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82"/>
-      <c r="B82"/>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>[Гель для стирки MAX Power Universal 4 л (8594010053955_5997467110524)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83"/>
-      <c r="B83"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>[Концентрированный стиральный порошок Triumf Color Protection для цветного белья 2.8 кг (4260266159928)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84"/>
-      <c r="B84"/>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>[Капсулы для стирки Ariel Pods Горный родник 30 шт (4015600950859)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85"/>
-      <c r="B85"/>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>[Стиральный порошок гигиенический Burti Hygiene Plus 1.1 кг (4000196121004_4000196121028)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86"/>
-      <c r="B86"/>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>[Био-гель суперконцентрат для стирки Astonish Жасмин Апельсиновый цвет 840 мл (5060060210394)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87"/>
-      <c r="B87"/>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>[Гель для стирки с ароматом Лаванда XL Lavatrice Lavanda 5 л (8003985202225)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88"/>
@@ -1133,79 +1396,6 @@
     <row r="160">
       <c r="A160"/>
       <c r="B160"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>[Xiaomi Redmi 6A 2/16GB Black</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>2999</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[Samsung Galaxy J3 2016 J320H/DS Black + чехол + защитное стекло в подарок!</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2699</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4750</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[Samsung Galaxy J7 Neo J701F/DS Black</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3999</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -65,7 +65,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 4/32GB Black</t>
+          <t>Huawei P Smart 2019 3/64GB Aurora Blue (51093FTA)</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -75,11 +75,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2019 3/64GB Aurora Blue (51093FTA)</t>
+          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5999.0</v>
+        <v>5699.0</v>
       </c>
     </row>
     <row r="3">
@@ -105,57 +105,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
+          <t>TP-Link Neffos N1 (TP908A) Space Black</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5699.0</v>
+        <v>5555.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TP-Link Neffos N1 (TP908A) Space Black</t>
+          <t>Apple iPhone 5s 16GB Gold</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5555.0</v>
+        <v>5549.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 5s 16GB Gold</t>
+          <t>Samsung Galaxy J6 2/32GB Black (SM-J600FZKDSEK)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5549.0</v>
+        <v>5199.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6 2/32GB Black (SM-J600FZKDSEK)</t>
+          <t>Huawei Y7 Prime 2018 Black</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5199.0</v>
+        <v>4999.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6 2/32GB Gold (SM-J600FZDDSEK)</t>
+          <t>Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5199.0</v>
+        <v>4999.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Huawei Y7 Prime 2018 Black</t>
+          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -165,7 +165,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Huawei Y7 Prime 2018 Black</t>
+          <t>Huawei P Smart Black</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -175,7 +175,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nokia 6 New Dual Sim Black</t>
+          <t>Sony Xperia XA1 Plus Dual (G3412) Black</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -185,7 +185,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Plus Dual (G3412) Black</t>
+          <t>Nokia 6 New Dual Sim Black</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -195,7 +195,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Huawei P Smart Black</t>
+          <t>Samsung Galaxy J5 (2017) J530 Black</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -205,7 +205,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
+          <t>Sigma mobile X-treme PQ51 Black-Red + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -215,237 +215,237 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4999.0</v>
+        <v>4799.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J5 (2017) J530 Black</t>
+          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4999.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ51 Black-Red + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4999.0</v>
+        <v>4699.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4999.0</v>
+        <v>4695.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4999.0</v>
+        <v>4599.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
+          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4799.0</v>
+        <v>4599.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
+          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4750.0</v>
+        <v>4499.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
+          <t>Huawei Y6 Prime 2018 Gold</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4699.0</v>
+        <v>4499.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
+          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4695.0</v>
+        <v>4444.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4599.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
+          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4599.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
+          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4599.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Huawei Y6 Prime 2018 Gold</t>
+          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4499.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Huawei Y6 Prime 2018 Gold</t>
+          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4499.0</v>
+        <v>4350.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
+          <t>Blackview BV6000s Black</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4499.0</v>
+        <v>4299.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
+          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4444.0</v>
+        <v>4199.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
+          <t>HTC Desire 830 Dual Sim Black-Gold</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4399.0</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
+          <t>Xiaomi Redmi 6 3/64GB Blue</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4399.0</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
+          <t>Sony Xperia XA1 Dual (G3112) White</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4399.0</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
+          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4399.0</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
+          <t>Xiaomi Redmi 6 3/64GB Black</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4350.0</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Blackview BV6000s Black</t>
+          <t>Xiaomi Redmi 6 3/64GB Gold</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4299.0</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
+          <t>Sony Xperia L2 Gold</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4199.0</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HTC Desire 830 Dual Sim Black-Gold</t>
+          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -455,51 +455,51 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/64GB Blue</t>
+          <t>Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3999.0</v>
+        <v>3899.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
+          <t>Xiaomi Redmi 6 3/32GB Black</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3999.0</v>
+        <v>3888.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
+          <t>ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3999.0</v>
+        <v>3799.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
+          <t>Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3899.0</v>
+        <v>3799.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/32GB Black</t>
+          <t>Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3888.0</v>
+        <v>3799.0</v>
       </c>
     </row>
     <row r="45">
@@ -515,7 +515,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
+          <t>Xiaomi Redmi 6 3/32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -525,150 +525,120 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
+          <t>Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3799.0</v>
+        <v>3777.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
+          <t>Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3799.0</v>
+        <v>3699.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/32GB Grey (Международная версия)</t>
+          <t>Prestigio Muze G7 LTE Black (PSP7550DUOBLACK)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3799.0</v>
+        <v>3699.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Xiaomi Redmi 6A 2/32GB Black</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3777.0</v>
+        <v>3499.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Prestigio Muze G7 LTE Black (PSP7550DUOBLACK)</t>
+          <t>Huawei Y6 2018 Blue</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3699.0</v>
+        <v>3499.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
+          <t>Tecno Pouvoir 2 Pro (LA7 pro) Champagne Gold</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3699.0</v>
+        <v>3499.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tecno Pouvoir 2 Pro (LA7 pro) Champagne Gold</t>
+          <t>LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3499.0</v>
+        <v>3399.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Huawei Y6 2018 Blue</t>
+          <t>Xiaomi Redmi 6A 3/32GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3499.0</v>
+        <v>3299.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 2/32GB Black</t>
+          <t>Xiaomi Redmi 6A 2/32GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3499.0</v>
+        <v>3299.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
+          <t>LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3399.0</v>
+        <v>3299.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
+          <t>Samsung Galaxy J2 2018 Black (SM-J250FZKDSEK) + чехол + стекло в подарок!</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3299.0</v>
+        <v>3199.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 2/32GB Black (Международная версия)</t>
+          <t>Meizu M5 Note 32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3299.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi 6A 3/32GB Gold (Global Rom + OTA)</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3299.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Meizu M5 Note 32GB Grey (Международная версия)</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3199.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy J2 2018 Black (SM-J250FZKDSEK) + чехол + стекло в подарок!</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
         <v>3199.0</v>
       </c>
     </row>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -65,7 +65,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2019 3/64GB Aurora Blue (51093FTA)</t>
+          <t>Xiaomi Mi A2 4/32GB Black</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -75,17 +75,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
+          <t>Huawei P Smart 2019 3/64GB Aurora Blue (51093FTA)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5699.0</v>
+        <v>5999.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 4/64GB Black</t>
+          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -95,7 +95,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
+          <t>Xiaomi Mi A2 Lite 4/64GB Black</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -105,31 +105,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TP-Link Neffos N1 (TP908A) Space Black</t>
+          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5555.0</v>
+        <v>5699.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 5s 16GB Gold</t>
+          <t>TP-Link Neffos N1 (TP908A) Space Black</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5549.0</v>
+        <v>5555.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6 2/32GB Black (SM-J600FZKDSEK)</t>
+          <t>Apple iPhone 5s 16GB Gold</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5199.0</v>
+        <v>5549.0</v>
       </c>
     </row>
     <row r="8">
@@ -139,23 +139,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4999.0</v>
+        <v>5499.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
+          <t>Samsung Galaxy J6 2/32GB Black (SM-J600FZKDSEK)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4999.0</v>
+        <v>5199.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
+          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -165,7 +165,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Huawei P Smart Black</t>
+          <t>Sigma mobile X-treme PQ51 Black-Red + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -175,7 +175,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Plus Dual (G3412) Black</t>
+          <t>Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -185,7 +185,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nokia 6 New Dual Sim Black</t>
+          <t>Huawei P Smart Black</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -195,7 +195,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J5 (2017) J530 Black</t>
+          <t>Sony Xperia XA1 Plus Dual (G3412) Black</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -205,7 +205,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ51 Black-Red + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Nokia 6 New Dual Sim Black</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -215,117 +215,117 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
+          <t>Samsung Galaxy J5 (2017) J530 Black</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4799.0</v>
+        <v>4999.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
+          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4750.0</v>
+        <v>4899.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4699.0</v>
+        <v>4799.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
+          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4695.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
+          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4599.0</v>
+        <v>4699.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
+          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4599.0</v>
+        <v>4695.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
+          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4499.0</v>
+        <v>4599.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Huawei Y6 Prime 2018 Gold</t>
+          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4499.0</v>
+        <v>4599.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
+          <t>Huawei Y6 Prime 2018 Gold</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4444.0</v>
+        <v>4499.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
+          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4399.0</v>
+        <v>4499.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
+          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4399.0</v>
+        <v>4444.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -335,7 +335,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
+          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -345,57 +345,57 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
+          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4350.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Blackview BV6000s Black</t>
+          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4299.0</v>
+        <v>4350.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
+          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4199.0</v>
+        <v>4299.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HTC Desire 830 Dual Sim Black-Gold</t>
+          <t>Blackview BV6000s Black</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3999.0</v>
+        <v>4299.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/64GB Blue</t>
+          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3999.0</v>
+        <v>4199.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Dual (G3112) White</t>
+          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -405,7 +405,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
+          <t>Sony Xperia L2 Gold</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -415,7 +415,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/64GB Black</t>
+          <t>Xiaomi Redmi 6 3/64GB Gold</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -425,7 +425,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/64GB Gold</t>
+          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -435,7 +435,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sony Xperia L2 Gold</t>
+          <t>Sony Xperia XA1 Dual (G3112) Gold</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -445,37 +445,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
+          <t>Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3999.0</v>
+        <v>3899.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
+          <t>Xiaomi Redmi 6 3/32GB Black</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3899.0</v>
+        <v>3888.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/32GB Black</t>
+          <t>Xiaomi Redmi 6 3/32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3888.0</v>
+        <v>3799.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
+          <t>TP-Link Neffos X1 Max Cloudy Gray (TP903A26UA)</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -505,7 +505,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TP-Link Neffos X1 Max Cloudy Gray (TP903A26UA)</t>
+          <t>ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -515,27 +515,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/32GB Grey (Международная версия)</t>
+          <t>Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3799.0</v>
+        <v>3777.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3777.0</v>
+        <v>3699.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
+          <t>Prestigio Muze G7 LTE Black (PSP7550DUOBLACK)</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -545,11 +545,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Prestigio Muze G7 LTE Black (PSP7550DUOBLACK)</t>
+          <t>Huawei Y6 2018 Blue</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3699.0</v>
+        <v>3499.0</v>
       </c>
     </row>
     <row r="50">
@@ -565,81 +565,61 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Huawei Y6 2018 Blue</t>
+          <t>LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3499.0</v>
+        <v>3399.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tecno Pouvoir 2 Pro (LA7 pro) Champagne Gold</t>
+          <t>LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3499.0</v>
+        <v>3299.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
+          <t>Xiaomi Redmi 6A 2/32GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3399.0</v>
+        <v>3299.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 3/32GB Gold (Global Rom + OTA)</t>
+          <t>Samsung Galaxy J2 2018 Black (SM-J250FZKDSEK) + чехол + стекло в подарок!</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3299.0</v>
+        <v>3199.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 2/32GB Black (Международная версия)</t>
+          <t>Meizu M5 Note 32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3299.0</v>
+        <v>3199.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
+          <t>Blackview BV4000 Pro Black</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3299.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy J2 2018 Black (SM-J250FZKDSEK) + чехол + стекло в подарок!</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3199.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Meizu M5 Note 32GB Grey (Международная версия)</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3199.0</v>
+        <v>3099.0</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +668,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 2/16GB Black</t>
+          <t>Xiaomi Redmi 6A 2/16GB Gold</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -85,7 +85,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
+          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Red</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -95,7 +95,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 4/64GB Black</t>
+          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -105,7 +105,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
+          <t>Xiaomi Mi A2 Lite 4/64GB Black</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -115,31 +115,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TP-Link Neffos N1 (TP908A) Space Black</t>
+          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5555.0</v>
+        <v>5699.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 5s 16GB Gold</t>
+          <t>TP-Link Neffos N1 (TP908A) Space Black</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5549.0</v>
+        <v>5555.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Huawei Y7 Prime 2018 Black</t>
+          <t>Apple iPhone 5s 16GB Gold</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5499.0</v>
+        <v>5549.0</v>
       </c>
     </row>
     <row r="9">
@@ -155,7 +155,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Huawei P Smart Blue</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -165,7 +165,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ51 Black-Red + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -175,7 +175,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
+          <t>Huawei P Smart Black</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -185,7 +185,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Huawei P Smart Black</t>
+          <t>Sony Xperia XA1 Plus Dual (G3412) Black</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -195,7 +195,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Plus Dual (G3412) Black</t>
+          <t>Nokia 6 New Dual Sim Black</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -205,7 +205,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nokia 6 New Dual Sim Black</t>
+          <t>Samsung Galaxy J5 (2017) J530 Black</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -215,7 +215,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J5 (2017) J530 Black</t>
+          <t>Sony Xperia XA1 Ultra Dual (G3212) Black</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -225,67 +225,67 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
+          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4899.0</v>
+        <v>4999.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
+          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4799.0</v>
+        <v>4899.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4750.0</v>
+        <v>4799.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
+          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4699.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
+          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4695.0</v>
+        <v>4699.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
+          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4599.0</v>
+        <v>4695.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
+          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -295,17 +295,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Huawei Y6 Prime 2018 Gold</t>
+          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4499.0</v>
+        <v>4599.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
+          <t>Huawei Y6 Prime 2018 Gold</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -315,27 +315,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
+          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4444.0</v>
+        <v>4499.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
+          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4399.0</v>
+        <v>4444.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -345,7 +345,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
+          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -355,27 +355,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
+          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4350.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
+          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4299.0</v>
+        <v>4350.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Blackview BV6000s Black</t>
+          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -385,27 +385,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
+          <t>Blackview BV6000s Black</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4199.0</v>
+        <v>4299.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
+          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3999.0</v>
+        <v>4199.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sony Xperia L2 Gold</t>
+          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -415,7 +415,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/64GB Gold</t>
+          <t>Sony Xperia XA1 Dual (G3112) Gold</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -425,7 +425,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
+          <t>Xiaomi Redmi 6 3/64GB Gold</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -435,7 +435,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Dual (G3112) Gold</t>
+          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -475,7 +475,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TP-Link Neffos X1 Max Cloudy Gray (TP903A26UA)</t>
+          <t>Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -485,7 +485,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
+          <t>Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -495,7 +495,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
+          <t>TP-Link Neffos X1 Max Cloudy Gray (TP903A26UA)</t>
         </is>
       </c>
       <c r="B44" t="n">

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -85,7 +85,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Red</t>
+          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -95,7 +95,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
+          <t>Xiaomi Mi A2 Lite 4/64GB Black</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -105,7 +105,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 4/64GB Black</t>
+          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -115,31 +115,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
+          <t>TP-Link Neffos N1 (TP908A) Space Black</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5699.0</v>
+        <v>5555.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TP-Link Neffos N1 (TP908A) Space Black</t>
+          <t>Apple iPhone 5s 16GB Gold</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5555.0</v>
+        <v>5549.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple iPhone 5s 16GB Gold</t>
+          <t>Huawei Y7 Prime 2018 Black</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5549.0</v>
+        <v>5499.0</v>
       </c>
     </row>
     <row r="9">
@@ -155,7 +155,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Huawei P Smart Blue</t>
+          <t>Samsung Galaxy J5 (2017) J530 Black</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -205,7 +205,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J5 (2017) J530 Black</t>
+          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -215,127 +215,127 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Ultra Dual (G3212) Black</t>
+          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4999.0</v>
+        <v>4899.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4999.0</v>
+        <v>4799.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
+          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4899.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
+          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4799.0</v>
+        <v>4699.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
+          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4750.0</v>
+        <v>4695.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
+          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4699.0</v>
+        <v>4599.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
+          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4695.0</v>
+        <v>4599.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
+          <t>Huawei Y6 Prime 2018 Gold</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4599.0</v>
+        <v>4499.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
+          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4599.0</v>
+        <v>4499.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Huawei Y6 Prime 2018 Gold</t>
+          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4499.0</v>
+        <v>4444.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4499.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
+          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4444.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
+          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -345,67 +345,67 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
+          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4399.0</v>
+        <v>4350.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
+          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4399.0</v>
+        <v>4299.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
+          <t>Blackview BV6000s Black</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4350.0</v>
+        <v>4299.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
+          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4299.0</v>
+        <v>4199.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Blackview BV6000s Black</t>
+          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4299.0</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
+          <t>Sony Xperia XA1 Dual (G3112) Gold</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4199.0</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
+          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -415,7 +415,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Dual (G3112) Gold</t>
+          <t>Xiaomi Redmi 6 3/64GB Gold</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -425,47 +425,47 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/64GB Gold</t>
+          <t>Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3999.0</v>
+        <v>3899.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
+          <t>Xiaomi Redmi 6 3/32GB Black</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3999.0</v>
+        <v>3888.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
+          <t>Xiaomi Redmi 6 3/32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3899.0</v>
+        <v>3799.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/32GB Black</t>
+          <t>ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3888.0</v>
+        <v>3799.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/32GB Grey (Международная версия)</t>
+          <t>TP-Link Neffos X1 Max Cloudy Gray (TP903A26UA)</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -475,7 +475,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
+          <t>Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -485,7 +485,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
+          <t>Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -495,130 +495,110 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TP-Link Neffos X1 Max Cloudy Gray (TP903A26UA)</t>
+          <t>Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3799.0</v>
+        <v>3777.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
+          <t>Prestigio Muze G7 LTE Black (PSP7550DUOBLACK)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3799.0</v>
+        <v>3699.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3777.0</v>
+        <v>3699.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
+          <t>Huawei Y6 2018 Blue</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3699.0</v>
+        <v>3499.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Prestigio Muze G7 LTE Black (PSP7550DUOBLACK)</t>
+          <t>Xiaomi Redmi 6A 2/32GB Black</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3699.0</v>
+        <v>3499.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Huawei Y6 2018 Blue</t>
+          <t>LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3499.0</v>
+        <v>3399.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 2/32GB Black</t>
+          <t>Xiaomi Redmi 6A 2/32GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3499.0</v>
+        <v>3299.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
+          <t>LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3399.0</v>
+        <v>3299.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
+          <t>Samsung Galaxy J2 2018 Black (SM-J250FZKDSEK) + чехол + стекло в подарок!</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3299.0</v>
+        <v>3199.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 2/32GB Black (Международная версия)</t>
+          <t>Meizu M5 Note 32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3299.0</v>
+        <v>3199.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J2 2018 Black (SM-J250FZKDSEK) + чехол + стекло в подарок!</t>
+          <t>Blackview BV4000 Pro Black</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3199.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Meizu M5 Note 32GB Grey (Международная версия)</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3199.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Blackview BV4000 Pro Black</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
         <v>3099.0</v>
       </c>
     </row>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -65,7 +65,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 4/32GB Black</t>
+          <t>Huawei P Smart 2019 3/64GB Aurora Blue (51093FTA)</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -75,7 +75,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2019 3/64GB Aurora Blue (51093FTA)</t>
+          <t>Xiaomi Mi A2 4/32GB Black</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -85,7 +85,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
+          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -105,7 +105,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
+          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -135,27 +135,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Huawei Y7 Prime 2018 Black</t>
+          <t>Samsung Galaxy J6 2/32GB Black (SM-J600FZKDSEK)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5499.0</v>
+        <v>5199.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6 2/32GB Black (SM-J600FZKDSEK)</t>
+          <t>Nokia 6 New Dual Sim Black</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5199.0</v>
+        <v>4999.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J5 (2017) J530 Black</t>
+          <t>Sony Xperia XA1 Plus Dual (G3412) Black</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -165,7 +165,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
+          <t>Huawei P Smart Black</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -175,7 +175,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Huawei P Smart Black</t>
+          <t>Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -185,7 +185,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Plus Dual (G3412) Black</t>
+          <t>Samsung Galaxy J5 (2017) J530 Black</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -195,7 +195,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nokia 6 New Dual Sim Black</t>
+          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -205,61 +205,61 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4999.0</v>
+        <v>4899.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4899.0</v>
+        <v>4799.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
+          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4799.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
+          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4750.0</v>
+        <v>4699.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
+          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4699.0</v>
+        <v>4695.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
+          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4695.0</v>
+        <v>4599.0</v>
       </c>
     </row>
     <row r="21">
@@ -275,11 +275,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
+          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4599.0</v>
+        <v>4499.0</v>
       </c>
     </row>
     <row r="23">
@@ -295,27 +295,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
+          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4499.0</v>
+        <v>4444.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
+          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4444.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
+          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -325,7 +325,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -335,27 +335,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
+          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4399.0</v>
+        <v>4350.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
+          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4350.0</v>
+        <v>4299.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
+          <t>Blackview BV6000s Black</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -365,27 +365,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Blackview BV6000s Black</t>
+          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4299.0</v>
+        <v>4199.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
+          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4199.0</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
+          <t>Sony Xperia XA1 Dual (G3112) Gold</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -395,7 +395,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Dual (G3112) Gold</t>
+          <t>Xiaomi Redmi 6 3/64GB Gold</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -415,37 +415,37 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/64GB Gold</t>
+          <t>Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3999.0</v>
+        <v>3899.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
+          <t>Xiaomi Redmi 6 3/32GB Black</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3899.0</v>
+        <v>3888.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/32GB Black</t>
+          <t>Xiaomi Redmi 6 3/32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3888.0</v>
+        <v>3799.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/32GB Grey (Международная версия)</t>
+          <t>Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -455,7 +455,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
+          <t>Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -475,7 +475,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
+          <t>ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -485,21 +485,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
+          <t>Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3799.0</v>
+        <v>3777.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3777.0</v>
+        <v>3699.0</v>
       </c>
     </row>
     <row r="45">
@@ -515,11 +515,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
+          <t>Xiaomi Redmi 6A 2/32GB Black</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3699.0</v>
+        <v>3499.0</v>
       </c>
     </row>
     <row r="47">
@@ -535,21 +535,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 2/32GB Black</t>
+          <t>LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3499.0</v>
+        <v>3399.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
+          <t>LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3399.0</v>
+        <v>3299.0</v>
       </c>
     </row>
     <row r="50">
@@ -565,11 +565,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
+          <t>Meizu M5 Note 32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3299.0</v>
+        <v>3199.0</v>
       </c>
     </row>
     <row r="52">
@@ -585,20 +585,10 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Meizu M5 Note 32GB Grey (Международная версия)</t>
+          <t>Blackview BV4000 Pro Black</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3199.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Blackview BV4000 Pro Black</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
         <v>3099.0</v>
       </c>
     </row>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -65,7 +65,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2019 3/64GB Aurora Blue (51093FTA)</t>
+          <t>201936451093</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -75,7 +75,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 4/32GB Black</t>
+          <t>2432</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -85,7 +85,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
+          <t>6332610</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -95,7 +95,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 4/64GB Black</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -105,7 +105,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
+          <t>133260241442</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -115,7 +115,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TP-Link Neffos N1 (TP908A) Space Black</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -125,7 +125,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 5s 16GB Gold</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -135,7 +135,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6 2/32GB Black (SM-J600FZKDSEK)</t>
+          <t>6232600</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -145,7 +145,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nokia 6 New Dual Sim Black</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -155,7 +155,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Plus Dual (G3412) Black</t>
+          <t>13412</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -165,7 +165,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Huawei P Smart Black</t>
+          <t/>
         </is>
       </c>
       <c r="B11" t="n">
@@ -175,7 +175,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
+          <t>13212</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -185,7 +185,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J5 (2017) J530 Black</t>
+          <t>52017530</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -195,7 +195,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -205,7 +205,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
+          <t>421641532</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -215,7 +215,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
+          <t>2332</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -225,7 +225,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -235,7 +235,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -245,7 +245,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
+          <t>519241</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -255,7 +255,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -265,7 +265,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -275,7 +275,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
+          <t>32017330</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -285,7 +285,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Huawei Y6 Prime 2018 Gold</t>
+          <t>62018</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -295,7 +295,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
+          <t>15704023</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -305,7 +305,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -315,7 +315,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -325,7 +325,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
+          <t>2332</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -335,7 +335,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
+          <t>5332</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -345,7 +345,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
+          <t>4201840032</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -355,7 +355,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Blackview BV6000s Black</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -365,7 +365,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -375,7 +375,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Honor 8 Lite 3/16GB Gold (Международная версия)</t>
+          <t>8316</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -385,7 +385,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Dual (G3112) Gold</t>
+          <t>13112</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -395,7 +395,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/64GB Gold</t>
+          <t>6364</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -405,7 +405,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
+          <t>7701</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -415,7 +415,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
+          <t>5332</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -425,7 +425,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/32GB Black</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -435,7 +435,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 3/32GB Grey (Международная версия)</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -445,7 +445,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -455,7 +455,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
+          <t>4216520404532</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -465,7 +465,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TP-Link Neffos X1 Max Cloudy Gray (TP903A26UA)</t>
+          <t>190326</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -475,7 +475,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
+          <t>17464569</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -485,7 +485,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -495,7 +495,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
+          <t>45544067</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -505,7 +505,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Prestigio Muze G7 LTE Black (PSP7550DUOBLACK)</t>
+          <t>77550</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -515,7 +515,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 2/32GB Black</t>
+          <t>6232</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -525,7 +525,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Huawei Y6 2018 Blue</t>
+          <t>62018</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -535,7 +535,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
+          <t>3522332</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -545,7 +545,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
+          <t>2526364</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -555,7 +555,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 2/32GB Black (Международная версия)</t>
+          <t>6232</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -565,7 +565,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Meizu M5 Note 32GB Grey (Международная версия)</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -575,7 +575,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J2 2018 Black (SM-J250FZKDSEK) + чехол + стекло в подарок!</t>
+          <t>22018250</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -585,7 +585,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Blackview BV4000 Pro Black</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -608,7 +608,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
+          <t>5332</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -628,7 +628,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
+          <t>7701</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -638,7 +638,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A 2/16GB Gold</t>
+          <t>6216</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -648,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J3 2016 J320H/DS Black + чехол + защитное стекло в подарок!</t>
+          <t>32016320</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -65,7 +65,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>201936451093</t>
+          <t>Huawei P Smart 2019 3/64GB Aurora Blue (51093FTA)</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -75,7 +75,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2432</t>
+          <t>Xiaomi Mi A2 4/32GB Black</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -85,7 +85,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6332610</t>
+          <t>Samsung Galaxy J6+ 3/32GB SM-J610 Black</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -95,7 +95,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>Xiaomi Mi A2 Lite 4/64GB Black</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -105,7 +105,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>133260241442</t>
+          <t>Asus ZenFone Max Pro (M1) 3/32GB ZB602KL-4A144WW DualSim Black + 2 чехла в подарок!</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -115,7 +115,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>TP-Link Neffos N1 (TP908A) Space Black</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -125,7 +125,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>Apple iPhone 5s 16GB Gold</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -135,27 +135,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6232600</t>
+          <t>Huawei Y7 Prime 2018 Black</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5199.0</v>
+        <v>5499.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Samsung Galaxy J6 2/32GB Black (SM-J600FZKDSEK)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4999.0</v>
+        <v>5199.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>13412</t>
+          <t>Sigma mobile X-treme PQ52 Black + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -165,7 +165,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t/>
+          <t>Nokia 6 New Dual Sim Black</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -175,7 +175,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13212</t>
+          <t>Sony Xperia XA1 Plus Dual (G3412) Black</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -185,7 +185,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>52017530</t>
+          <t>Huawei P Smart Black</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -195,7 +195,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Sony Xperia XA1 Ultra Dual (G3212) Gold</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -205,67 +205,67 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>421641532</t>
+          <t>Samsung Galaxy J5 (2017) J530 Black</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4899.0</v>
+        <v>4999.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2332</t>
+          <t>Samsung Galaxy J4+ 2/16GB SM-J415 Black + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4799.0</v>
+        <v>4899.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4750.0</v>
+        <v>4799.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4699.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>519241</t>
+          <t>Xiaomi Redmi 6 Pro 4/64GB Black (Global ROM + OTA)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4695.0</v>
+        <v>4699.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>Motorola Moto E5 Plus (XT1924-1) Grey</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4599.0</v>
+        <v>4695.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>Xiaomi Mi Max 2 4/64GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -275,17 +275,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>32017330</t>
+          <t>Xiaomi Redmi Note 4X 4/64GB Blue</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4499.0</v>
+        <v>4599.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>62018</t>
+          <t>Samsung Galaxy J3 (2017) J330 Black + чехол + защитное стекло в подарок!</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -295,27 +295,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>15704023</t>
+          <t>Huawei Y6 Prime 2018 Gold</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4444.0</v>
+        <v>4499.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>Asus ZenFone Max Plus (M1) ZB570TL-4A023WW Dual Sim Black</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4399.0</v>
+        <v>4444.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>Xiaomi Redmi 5 Plus 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -325,7 +325,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2332</t>
+          <t>Xiaomi Mi A1 4/32GB Dual Sim Rose Gold (Международная версия)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -335,27 +335,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5332</t>
+          <t>Xiaomi Mi A2 Lite 3/32GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4350.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4201840032</t>
+          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4299.0</v>
+        <v>4350.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>Blackview BV6000s Black</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -365,27 +365,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>Samsung Galaxy J4 2018 Black (SM-J400FZKDSEK) + карта памяти Samsung 32GB в подарок!</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4199.0</v>
+        <v>4299.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8316</t>
+          <t>Xiaomi Redmi Note 5A Prime 4/64GB Gray</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3999.0</v>
+        <v>4199.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13112</t>
+          <t>Xiaomi Redmi 6 3/64GB Gold</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -395,7 +395,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6364</t>
+          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -405,7 +405,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7701</t>
+          <t>Sony Xperia XA1 Dual (G3112) Gold</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -415,7 +415,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5332</t>
+          <t>Xiaomi Redmi 5 Plus 3/32GB Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -425,7 +425,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>Xiaomi Redmi 6 3/32GB Black</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -435,7 +435,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>Xiaomi Redmi 6 4/64GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -445,7 +445,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>Asus ZenFone 4 Max 2/16GB (ZC520KL-4A045WW) Dual Sim Black + чехол + карта памяти 32ГБ в подарок!</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -455,7 +455,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4216520404532</t>
+          <t>TP-Link Neffos X1 Max Cloudy Gray (TP903A26UA)</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -465,7 +465,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>190326</t>
+          <t>ZTE Nubia Z17mini 4/64GB (NX569JG) Gold</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -475,7 +475,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>17464569</t>
+          <t>Xiaomi Redmi 6 3/32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -485,7 +485,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Sigma mobile X-treme PQ24 Black + зимние перчатки для сенсорных экранов в подарок!</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -495,7 +495,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>45544067</t>
+          <t>Asus ZenFone 4 Max (ZC554KL-4A067WW) Dual Sim Black</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -505,7 +505,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>77550</t>
+          <t>Prestigio Muze G7 LTE Black (PSP7550DUOBLACK)</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -515,7 +515,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>Xiaomi Redmi 6A 2/32GB Black</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -525,7 +525,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>62018</t>
+          <t>Huawei Y6 2018 Blue</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -535,7 +535,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3522332</t>
+          <t>LeEco Le S3 (X522) 3/32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -545,7 +545,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2526364</t>
+          <t>Xiaomi Redmi 6A 2/32GB Black (Международная версия)</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -555,7 +555,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>LeEco Le2 (X526) 3/64GB Rose Gold (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -565,7 +565,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>Meizu M5 Note 32GB Grey (Международная версия)</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -575,7 +575,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>22018250</t>
+          <t>Samsung Galaxy J2 2018 Black (SM-J250FZKDSEK) + чехол + стекло в подарок!</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -585,7 +585,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>Blackview BV4000 Pro Black</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -608,7 +608,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>Xiaomi Redmi Note 5 4/64GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5332</t>
+          <t>Xiaomi Redmi Note 5 3/32GB Black (Global Rom + OTA)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -628,7 +628,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7701</t>
+          <t>Samsung Galaxy J7 Neo J701F/DS Black</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -638,7 +638,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6216</t>
+          <t>Xiaomi Redmi 6A 2/16GB Gold</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -648,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32016320</t>
+          <t>Samsung Galaxy J3 2016 J320H/DS Black + чехол + защитное стекло в подарок!</t>
         </is>
       </c>
       <c r="B5" t="n">
